--- a/Living_Wage_Template.xlsx
+++ b/Living_Wage_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlee\OneDrive - SullivanCotter\Documents\Streamlit Sources and Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5382025-0994-4A0A-932A-11F9E8434673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171B0D9A-A3EA-4E15-AF42-E738CD27343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="802" xr2:uid="{7C11A714-C80F-461A-B53C-BFBD70F5773A}"/>
   </bookViews>
@@ -2198,7 +2198,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2700,10 +2700,10 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2714,7 +2714,7 @@
     <col min="4" max="16384" width="9.1796875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>37</v>
       </c>
@@ -2723,14 +2723,14 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>39</v>
       </c>
@@ -2741,179 +2741,199 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="61">
-        <f>(B13)/1000</f>
+        <f>(B18)/1000</f>
         <v>70.626582851568003</v>
       </c>
       <c r="C4" s="61">
-        <f>(C13)/1000</f>
+        <f>(C18)/1000</f>
         <v>82.191779834087995</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="61">
-        <f>(B16)/1000</f>
+        <f>(B21)/1000</f>
         <v>84.040646313071989</v>
       </c>
       <c r="C5" s="61">
-        <f>(C16)/1000</f>
+        <f>(C21)/1000</f>
         <v>98.346565414271993</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="61">
-        <f>(B14)/1000</f>
+        <f>(B19)/1000</f>
         <v>109.62679578367198</v>
       </c>
       <c r="C6" s="61">
-        <f>(C14)/1000</f>
+        <f>(C19)/1000</f>
         <v>125.620594074072</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="61">
-        <f>(B17)/1000</f>
+        <f>(B22)/1000</f>
         <v>117.54059695567199</v>
       </c>
       <c r="C7" s="61">
-        <f>(C17)/1000</f>
+        <f>(C22)/1000</f>
         <v>134.74631352247198</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="61">
-        <f>(B15)/1000</f>
+        <f>(B20)/1000</f>
         <v>126.29134606684798</v>
       </c>
       <c r="C8" s="61">
-        <f>(C15)/1000</f>
+        <f>(C20)/1000</f>
         <v>143.31337533004796</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="61">
-        <f>(B18)/1000</f>
+        <f>(B23)/1000</f>
         <v>132.90435424067999</v>
       </c>
       <c r="C9" s="61">
-        <f>(C18)/1000</f>
+        <f>(C23)/1000</f>
         <v>151.02205887587996</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+    </row>
+    <row r="16" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="55"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="63">
-        <v>70626.582851568004</v>
-      </c>
-      <c r="C13" s="63">
-        <v>82191.779834087996</v>
-      </c>
-      <c r="D13" s="55"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="63">
-        <v>109626.79578367199</v>
-      </c>
-      <c r="C14" s="63">
-        <v>125620.594074072</v>
-      </c>
-      <c r="D14" s="55"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="63">
-        <v>126291.34606684798</v>
-      </c>
-      <c r="C15" s="63">
-        <v>143313.37533004797</v>
-      </c>
-      <c r="D15" s="55"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="63">
-        <v>84040.646313071993</v>
-      </c>
-      <c r="C16" s="63">
-        <v>98346.565414271987</v>
-      </c>
-      <c r="D16" s="55"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="63">
-        <v>117540.59695567199</v>
-      </c>
-      <c r="C17" s="63">
-        <v>134746.31352247199</v>
+        <v>48</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="55"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="63">
+        <v>70626.582851568004</v>
+      </c>
+      <c r="C18" s="63">
+        <v>82191.779834087996</v>
+      </c>
+      <c r="D18" s="55"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="63">
+        <v>109626.79578367199</v>
+      </c>
+      <c r="C19" s="63">
+        <v>125620.594074072</v>
+      </c>
+      <c r="D19" s="55"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="63">
+        <v>126291.34606684798</v>
+      </c>
+      <c r="C20" s="63">
+        <v>143313.37533004797</v>
+      </c>
+      <c r="D20" s="55"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="63">
+        <v>84040.646313071993</v>
+      </c>
+      <c r="C21" s="63">
+        <v>98346.565414271987</v>
+      </c>
+      <c r="D21" s="55"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="63">
+        <v>117540.59695567199</v>
+      </c>
+      <c r="C22" s="63">
+        <v>134746.31352247199</v>
+      </c>
+      <c r="D22" s="55"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B23" s="63">
         <v>132904.35424068</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C23" s="63">
         <v>151022.05887587997</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D23" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Living_Wage_Template.xlsx
+++ b/Living_Wage_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlee\OneDrive - SullivanCotter\Documents\Streamlit Sources and Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171B0D9A-A3EA-4E15-AF42-E738CD27343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F6EDB-3419-4E5D-90C6-6790E0CA6417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="802" xr2:uid="{7C11A714-C80F-461A-B53C-BFBD70F5773A}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
   <si>
     <t>Family Configuration</t>
   </si>
@@ -199,24 +199,6 @@
   </si>
   <si>
     <t>Living Wage</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>2,2</t>
   </si>
   <si>
     <t>Copy the values from the Area Table2 into the Teal shaded area</t>
@@ -473,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +549,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +767,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -923,6 +911,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1113,30 +1107,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>LW_TW_Exhibit!$A$4:$A$9</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1,0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2,0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1,1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2,1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1,2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2,2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1144,24 +1121,6 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>70.626582851568003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>84.040646313071989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>109.62679578367198</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>117.54059695567199</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>126.29134606684798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>132.90435424067999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1254,30 +1213,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>LW_TW_Exhibit!$A$4:$A$9</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1,0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2,0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1,1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2,1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1,2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2,2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1285,24 +1227,6 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>82.191779834087995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98.346565414271993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>125.620594074072</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>134.74631352247198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143.31337533004796</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>151.02205887587996</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2702,8 +2626,8 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2742,82 +2666,34 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="61">
-        <f>(B18)/1000</f>
-        <v>70.626582851568003</v>
-      </c>
-      <c r="C4" s="61">
-        <f>(C18)/1000</f>
-        <v>82.191779834087995</v>
-      </c>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="61">
-        <f>(B21)/1000</f>
-        <v>84.040646313071989</v>
-      </c>
-      <c r="C5" s="61">
-        <f>(C21)/1000</f>
-        <v>98.346565414271993</v>
-      </c>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="61">
-        <f>(B19)/1000</f>
-        <v>109.62679578367198</v>
-      </c>
-      <c r="C6" s="61">
-        <f>(C19)/1000</f>
-        <v>125.620594074072</v>
-      </c>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="61">
-        <f>(B22)/1000</f>
-        <v>117.54059695567199</v>
-      </c>
-      <c r="C7" s="61">
-        <f>(C22)/1000</f>
-        <v>134.74631352247198</v>
-      </c>
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="61">
-        <f>(B20)/1000</f>
-        <v>126.29134606684798</v>
-      </c>
-      <c r="C8" s="61">
-        <f>(C20)/1000</f>
-        <v>143.31337533004796</v>
-      </c>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="61">
-        <f>(B23)/1000</f>
-        <v>132.90435424067999</v>
-      </c>
-      <c r="C9" s="61">
-        <f>(C23)/1000</f>
-        <v>151.02205887587996</v>
-      </c>
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="61"/>
@@ -2841,14 +2717,14 @@
     </row>
     <row r="16" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="71" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>40</v>
@@ -4329,235 +4205,235 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="66" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B7" s="66"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="74" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B8" s="74"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="75" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B10" s="76"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="72" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B17" s="73"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="74" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B24" s="74"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="75" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B26" s="76"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="72" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B31" s="73"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Living_Wage_Template.xlsx
+++ b/Living_Wage_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlee\OneDrive - SullivanCotter\Documents\Streamlit Sources and Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F6EDB-3419-4E5D-90C6-6790E0CA6417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A46EBC-CB42-4862-9D22-02D26D22FEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="802" xr2:uid="{7C11A714-C80F-461A-B53C-BFBD70F5773A}"/>
+    <workbookView xWindow="16140" yWindow="-16370" windowWidth="29020" windowHeight="15820" tabRatio="802" xr2:uid="{7C11A714-C80F-461A-B53C-BFBD70F5773A}"/>
   </bookViews>
   <sheets>
     <sheet name="LW_TW_Exhibit" sheetId="20" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
   <si>
     <t>Family Configuration</t>
   </si>
@@ -189,24 +189,9 @@
     <t>This is not typically used for our calculations</t>
   </si>
   <si>
-    <t>Edit the text below to change the chart title.</t>
-  </si>
-  <si>
-    <t>Household Living Wage for San Jose, CA</t>
-  </si>
-  <si>
-    <t>Adult, Child Configuration</t>
-  </si>
-  <si>
     <t>Living Wage</t>
   </si>
   <si>
-    <t>Copy the values from the Area Table2 into the Teal shaded area</t>
-  </si>
-  <si>
-    <t>Household config</t>
-  </si>
-  <si>
     <t>This workbook contains all the data in the 2022 edition of EPI's Family budget calculator. All data are in 2020 dollars.</t>
   </si>
   <si>
@@ -328,6 +313,12 @@
   </si>
   <si>
     <t>Ranks metro areas by median family income. top 100 only</t>
+  </si>
+  <si>
+    <t>Household Living/Thriving Wage for San Jose, CA</t>
+  </si>
+  <si>
+    <t>Provider, Dependent Configuration</t>
   </si>
 </sst>
 </file>
@@ -336,9 +327,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#.0,&quot;K&quot;"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#.0,&quot;K&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -430,18 +421,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -454,8 +433,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Avenir Next LT Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir Next LT Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,12 +517,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor theme="5" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -765,9 +750,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -789,21 +774,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -811,20 +796,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -837,10 +822,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -852,56 +837,30 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -913,10 +872,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -925,7 +897,123 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{D5F5B0D9-7974-44DA-BE35-B10602A1A52A}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Avenir Next LT Pro"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Avenir Next LT Pro"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Avenir Next LT Pro"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Avenir Next LT Pro"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Avenir Next LT Pro"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{775200F2-FFF4-4729-A3E1-85A02A603423}"/>
   </tableStyles>
@@ -975,7 +1063,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Household Living Wage for San Jose, CA</c:v>
+              <c:v>Household Living/Thriving Wage for San Jose, CA</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1280,7 +1368,21 @@
                     <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Adult, Child Configuration</a:t>
+                  <a:t>Provider, Dependent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Configuration</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1403,7 +1505,7 @@
                     <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Living</a:t>
+                  <a:t>Living/Thriving</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0">
@@ -2324,6 +2426,21 @@
 </externalLink>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C7F79FB-D099-472C-88A2-EE3468F843CC}" name="Table1" displayName="Table1" ref="A3:C9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A3:C9" xr:uid="{9C7F79FB-D099-472C-88A2-EE3468F843CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C9">
+    <sortCondition ref="B3:B9"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EBDFBF5F-D964-4BBE-8E82-5EA65C2897D8}" name="Provider, Dependent Configuration" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{86BC734C-0E3E-4CD3-9CF3-CD35407ED60E}" name="Living Wage" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{150171A6-D173-4430-8006-D76099A23AAB}" name="Thriving Wage" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2624,195 +2741,123 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" style="60" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="54"/>
+    <col min="1" max="1" width="41" style="67" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="67" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="67" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="60" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-    </row>
-    <row r="16" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="55"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="63">
-        <v>70626.582851568004</v>
-      </c>
-      <c r="C18" s="63">
-        <v>82191.779834087996</v>
-      </c>
-      <c r="D18" s="55"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="63">
-        <v>109626.79578367199</v>
-      </c>
-      <c r="C19" s="63">
-        <v>125620.594074072</v>
-      </c>
-      <c r="D19" s="55"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="63">
-        <v>126291.34606684798</v>
-      </c>
-      <c r="C20" s="63">
-        <v>143313.37533004797</v>
-      </c>
-      <c r="D20" s="55"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="63">
-        <v>84040.646313071993</v>
-      </c>
-      <c r="C21" s="63">
-        <v>98346.565414271987</v>
-      </c>
-      <c r="D21" s="55"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="63">
-        <v>117540.59695567199</v>
-      </c>
-      <c r="C22" s="63">
-        <v>134746.31352247199</v>
-      </c>
-      <c r="D22" s="55"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="63">
-        <v>132904.35424068</v>
-      </c>
-      <c r="C23" s="63">
-        <v>151022.05887587997</v>
-      </c>
-      <c r="D23" s="55"/>
-    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+    </row>
+    <row r="16" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+    </row>
+    <row r="17" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2853,24 +2898,24 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="S2" s="68" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="S2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
     </row>
     <row r="4" spans="3:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="42" t="s">
@@ -2910,7 +2955,7 @@
       <c r="U4" s="24">
         <v>0.2</v>
       </c>
-      <c r="W4" s="57" t="s">
+      <c r="W4" s="55" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2919,7 +2964,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="30" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C5,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C5,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E5" s="30" t="e">
@@ -2962,7 +3007,7 @@
       <c r="U5" s="25">
         <v>2</v>
       </c>
-      <c r="W5" s="57" t="s">
+      <c r="W5" s="55" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2971,7 +3016,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="31" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C6,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C6,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E6" s="31" t="e">
@@ -3020,7 +3065,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="32" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C7,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C7,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E7" s="32" t="e">
@@ -3062,7 +3107,7 @@
       <c r="S7" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="65">
+      <c r="U7" s="57">
         <v>0.06</v>
       </c>
     </row>
@@ -3071,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="31" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C8,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C8,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E8" s="31" t="e">
@@ -3116,7 +3161,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="32" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C9,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C9,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E9" s="32" t="e">
@@ -3161,7 +3206,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="52" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C10,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C10,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E10" s="52" t="e">
@@ -3229,16 +3274,16 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
       <c r="M13" s="38" t="s">
         <v>15</v>
       </c>
@@ -3325,7 +3370,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C15,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C15,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E15" s="21" t="e">
@@ -3387,7 +3432,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C16,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C16,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E16" s="21" t="e">
@@ -3444,7 +3489,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C17,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C17,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E17" s="21" t="e">
@@ -3507,7 +3552,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C18,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C18,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E18" s="21" t="e">
@@ -3545,7 +3590,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C19,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C19,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E19" s="21" t="e">
@@ -3583,7 +3628,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C20,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C20,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E20" s="21" t="e">
@@ -3625,16 +3670,16 @@
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" spans="3:20" ht="39" x14ac:dyDescent="0.35">
       <c r="C24" s="16" t="s">
@@ -3664,7 +3709,7 @@
       <c r="K24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="58" t="s">
+      <c r="M24" s="56" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3673,7 +3718,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C25,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C25,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E25" s="21" t="e">
@@ -3704,7 +3749,7 @@
         <f>SUM(D25:J25)</f>
         <v>#REF!</v>
       </c>
-      <c r="M25" s="56" t="e">
+      <c r="M25" s="54" t="e">
         <f>K25/K15-1</f>
         <v>#REF!</v>
       </c>
@@ -3714,7 +3759,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C26,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C26,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E26" s="21" t="e">
@@ -3745,7 +3790,7 @@
         <f t="shared" ref="K26:K30" si="3">SUM(D26:J26)</f>
         <v>#REF!</v>
       </c>
-      <c r="M26" s="56" t="e">
+      <c r="M26" s="54" t="e">
         <f t="shared" ref="M26:M30" si="4">K26/K16-1</f>
         <v>#REF!</v>
       </c>
@@ -3755,7 +3800,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C27,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C27,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E27" s="21" t="e">
@@ -3786,7 +3831,7 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="M27" s="56" t="e">
+      <c r="M27" s="54" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3796,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C28,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C28,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E28" s="21" t="e">
@@ -3827,7 +3872,7 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="M28" s="56" t="e">
+      <c r="M28" s="54" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3837,7 +3882,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C29,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C29,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E29" s="21" t="e">
@@ -3868,7 +3913,7 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="M29" s="56" t="e">
+      <c r="M29" s="54" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3878,7 +3923,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C30,#REF!,#REF!)*(1+$U$7)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C30,#REF!,#REF!)*(1+$U$7)</f>
         <v>#REF!</v>
       </c>
       <c r="E30" s="21" t="e">
@@ -3909,7 +3954,7 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="M30" s="56" t="e">
+      <c r="M30" s="54" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3958,7 +4003,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C35,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C35,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E35" s="21" t="e">
@@ -3995,7 +4040,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C36,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C36,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E36" s="21" t="e">
@@ -4032,7 +4077,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C37,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C37,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E37" s="21" t="e">
@@ -4069,7 +4114,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C38,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C38,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E38" s="21" t="e">
@@ -4106,7 +4151,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C39,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C39,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E39" s="21" t="e">
@@ -4143,7 +4188,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="21" t="e">
-        <f>SUMIFS(#REF!, #REF!,Area_Table!C40,#REF!,#REF!)</f>
+        <f>SUMIFS(#REF!,#REF!, Area_Table!C40,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E40" s="21" t="e">
@@ -4205,235 +4250,235 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="66"/>
+      <c r="A7" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="63"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="74"/>
+      <c r="A8" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="64"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="76"/>
+      <c r="A10" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="73"/>
+      <c r="A17" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="62"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="74"/>
+      <c r="A24" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="64"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="76"/>
+      <c r="A26" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="66"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="73"/>
+      <c r="A31" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="62"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4451,15 +4496,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100742927D7CA6F954C99F4B2068A74BABB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4bf7f5e14657bdbf577a7354a457154c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b19c3ea-1b0c-4a6f-b54d-45503c186e24" xmlns:ns3="557c3884-1143-4df7-86a6-4c64d8304ce8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08db799928ca8db8304477a59cc68f80" ns2:_="" ns3:_="">
     <xsd:import namespace="5b19c3ea-1b0c-4a6f-b54d-45503c186e24"/>
@@ -4702,6 +4738,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4714,14 +4759,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44100B47-E7BC-43B4-BA47-5E33AD60786A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD1EE8F4-CEF0-481F-8650-2D169628DC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4741,6 +4778,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44100B47-E7BC-43B4-BA47-5E33AD60786A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A4C86A5-52AE-4171-AAA5-DEFA43722F80}">
   <ds:schemaRefs>

--- a/Living_Wage_Template.xlsx
+++ b/Living_Wage_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlee\OneDrive - SullivanCotter\Documents\Streamlit Sources and Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A46EBC-CB42-4862-9D22-02D26D22FEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5934AF7-D33F-4FDC-89DA-93A9C6EB30FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="-16370" windowWidth="29020" windowHeight="15820" tabRatio="802" xr2:uid="{7C11A714-C80F-461A-B53C-BFBD70F5773A}"/>
+    <workbookView xWindow="-12670" yWindow="-16310" windowWidth="29020" windowHeight="15820" tabRatio="802" xr2:uid="{7C11A714-C80F-461A-B53C-BFBD70F5773A}"/>
   </bookViews>
   <sheets>
     <sheet name="LW_TW_Exhibit" sheetId="20" r:id="rId1"/>
@@ -533,13 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,6 +845,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,23 +888,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -898,44 +898,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Avenir Next LT Pro"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Avenir Next LT Pro"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1009,6 +971,44 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Avenir Next LT Pro"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Avenir Next LT Pro"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2427,15 +2427,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C7F79FB-D099-472C-88A2-EE3468F843CC}" name="Table1" displayName="Table1" ref="A3:C9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C7F79FB-D099-472C-88A2-EE3468F843CC}" name="Table1" displayName="Table1" ref="A3:C9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A3:C9" xr:uid="{9C7F79FB-D099-472C-88A2-EE3468F843CC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C9">
     <sortCondition ref="B3:B9"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EBDFBF5F-D964-4BBE-8E82-5EA65C2897D8}" name="Provider, Dependent Configuration" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{86BC734C-0E3E-4CD3-9CF3-CD35407ED60E}" name="Living Wage" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{150171A6-D173-4430-8006-D76099A23AAB}" name="Thriving Wage" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EBDFBF5F-D964-4BBE-8E82-5EA65C2897D8}" name="Provider, Dependent Configuration" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{86BC734C-0E3E-4CD3-9CF3-CD35407ED60E}" name="Living Wage" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{150171A6-D173-4430-8006-D76099A23AAB}" name="Thriving Wage" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2744,111 +2744,111 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41" style="67" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="67" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" style="67" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="68"/>
+    <col min="1" max="1" width="41" style="58" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="58" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="60" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
     </row>
     <row r="16" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-    </row>
-    <row r="17" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="68" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+    </row>
+    <row r="17" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" s="59" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>
@@ -2898,24 +2898,24 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="S2" s="59" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="S2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
     </row>
     <row r="4" spans="3:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="42" t="s">
@@ -3274,16 +3274,16 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
       <c r="M13" s="38" t="s">
         <v>15</v>
       </c>
@@ -3670,16 +3670,16 @@
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
     </row>
     <row r="24" spans="3:20" ht="39" x14ac:dyDescent="0.35">
       <c r="C24" s="16" t="s">
@@ -4264,16 +4264,16 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="69"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="70"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -4284,10 +4284,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="72"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -4338,10 +4338,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="68"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
@@ -4384,10 +4384,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="64"/>
+      <c r="B24" s="70"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -4398,10 +4398,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="66"/>
+      <c r="B26" s="72"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -4436,10 +4436,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="62"/>
+      <c r="B31" s="68"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
@@ -4496,6 +4496,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5b19c3ea-1b0c-4a6f-b54d-45503c186e24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="557c3884-1143-4df7-86a6-4c64d8304ce8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100742927D7CA6F954C99F4B2068A74BABB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4bf7f5e14657bdbf577a7354a457154c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b19c3ea-1b0c-4a6f-b54d-45503c186e24" xmlns:ns3="557c3884-1143-4df7-86a6-4c64d8304ce8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08db799928ca8db8304477a59cc68f80" ns2:_="" ns3:_="">
     <xsd:import namespace="5b19c3ea-1b0c-4a6f-b54d-45503c186e24"/>
@@ -4738,27 +4758,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A4C86A5-52AE-4171-AAA5-DEFA43722F80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="5b19c3ea-1b0c-4a6f-b54d-45503c186e24"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="557c3884-1143-4df7-86a6-4c64d8304ce8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5b19c3ea-1b0c-4a6f-b54d-45503c186e24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="557c3884-1143-4df7-86a6-4c64d8304ce8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44100B47-E7BC-43B4-BA47-5E33AD60786A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD1EE8F4-CEF0-481F-8650-2D169628DC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4776,25 +4797,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44100B47-E7BC-43B4-BA47-5E33AD60786A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A4C86A5-52AE-4171-AAA5-DEFA43722F80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="5b19c3ea-1b0c-4a6f-b54d-45503c186e24"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="557c3884-1143-4df7-86a6-4c64d8304ce8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Living_Wage_Template.xlsx
+++ b/Living_Wage_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlee\OneDrive - SullivanCotter\Documents\Streamlit Sources and Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5934AF7-D33F-4FDC-89DA-93A9C6EB30FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD1A550-79A9-4E68-B82A-36FE52A13B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12670" yWindow="-16310" windowWidth="29020" windowHeight="15820" tabRatio="802" xr2:uid="{7C11A714-C80F-461A-B53C-BFBD70F5773A}"/>
+    <workbookView xWindow="16140" yWindow="-16370" windowWidth="29020" windowHeight="15820" tabRatio="802" xr2:uid="{7C11A714-C80F-461A-B53C-BFBD70F5773A}"/>
   </bookViews>
   <sheets>
     <sheet name="LW_TW_Exhibit" sheetId="20" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <numFmt numFmtId="166" formatCode="#.0,&quot;K&quot;"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,8 +445,18 @@
       <name val="Avenir Next LT Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Avenir Next LT Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,18 +543,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -746,13 +750,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -852,12 +872,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,13 +902,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{D5F5B0D9-7974-44DA-BE35-B10602A1A52A}"/>
+    <cellStyle name="Normal_Executive Market Data.v11" xfId="3" xr:uid="{19A04F63-F498-400A-B994-0940308320E2}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
@@ -910,19 +928,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Avenir Next LT Pro"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -936,7 +953,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Avenir Next LT Pro"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -945,10 +962,26 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -962,31 +995,77 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Avenir Next LT Pro"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color auto="1"/>
         <name val="Avenir Next LT Pro"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1198,7 +1277,7 @@
             <c:numRef>
               <c:f>LW_TW_Exhibit!$A$4:$A$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="6"/>
               </c:numCache>
             </c:numRef>
@@ -1304,7 +1383,7 @@
             <c:numRef>
               <c:f>LW_TW_Exhibit!$A$4:$A$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="6"/>
               </c:numCache>
             </c:numRef>
@@ -1416,7 +1495,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2427,15 +2506,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C7F79FB-D099-472C-88A2-EE3468F843CC}" name="Table1" displayName="Table1" ref="A3:C9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C7F79FB-D099-472C-88A2-EE3468F843CC}" name="Table1" displayName="Table1" ref="A3:C9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0" dataCellStyle="Normal_Executive Market Data.v11">
   <autoFilter ref="A3:C9" xr:uid="{9C7F79FB-D099-472C-88A2-EE3468F843CC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C9">
     <sortCondition ref="B3:B9"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EBDFBF5F-D964-4BBE-8E82-5EA65C2897D8}" name="Provider, Dependent Configuration" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{86BC734C-0E3E-4CD3-9CF3-CD35407ED60E}" name="Living Wage" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{150171A6-D173-4430-8006-D76099A23AAB}" name="Thriving Wage" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EBDFBF5F-D964-4BBE-8E82-5EA65C2897D8}" name="Provider, Dependent Configuration" dataDxfId="3" dataCellStyle="Normal_Executive Market Data.v11"/>
+    <tableColumn id="2" xr3:uid="{86BC734C-0E3E-4CD3-9CF3-CD35407ED60E}" name="Living Wage" dataDxfId="2" dataCellStyle="Normal_Executive Market Data.v11"/>
+    <tableColumn id="3" xr3:uid="{150171A6-D173-4430-8006-D76099A23AAB}" name="Thriving Wage" dataDxfId="1" dataCellStyle="Normal_Executive Market Data.v11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2743,8 +2822,8 @@
   </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2757,11 +2836,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
@@ -2775,50 +2854,50 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="59"/>
@@ -2869,7 +2948,7 @@
   <dimension ref="C2:X40"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2898,24 +2977,24 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="S2" s="65" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="S2" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
     </row>
     <row r="4" spans="3:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="42" t="s">
@@ -3274,16 +3353,16 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
       <c r="M13" s="38" t="s">
         <v>15</v>
       </c>
@@ -3670,16 +3749,16 @@
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="3:20" ht="39" x14ac:dyDescent="0.35">
       <c r="C24" s="16" t="s">
@@ -4264,16 +4343,16 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="67"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="68"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -4284,10 +4363,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="70"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -4338,10 +4417,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="66"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
@@ -4384,10 +4463,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="70"/>
+      <c r="B24" s="68"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -4398,10 +4477,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="72"/>
+      <c r="B26" s="70"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -4436,10 +4515,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="66"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
